--- a/AssetBundles/adb push命令.xlsx
+++ b/AssetBundles/adb push命令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityHank_Art_Assets\AssetBundles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D62B4-0ABE-467F-AA6E-95DBA3B8684E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC34D88-2FEC-4E45-A9EC-78AD2B84464E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C33"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,8 +599,8 @@
         <v>30</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>"adb push ""Android/"&amp;B7&amp;"/" &amp; A7 &amp; """ ""/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/" &amp; B7 &amp;"/" &amp; A7 &amp; """"</f>
-        <v>adb push "Android/role/antler.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/antler.ab"</v>
+        <f>"adb push """&amp;B7&amp;"/" &amp; A7 &amp; """ ""/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/" &amp; B7 &amp;"/" &amp; A7 &amp; """"</f>
+        <v>adb push "role/antler.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/antler.ab"</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -611,8 +611,8 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" ref="C8:C33" si="0">"adb push ""Android/"&amp;B8&amp;"/" &amp; A8 &amp; """ ""/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/" &amp; B8 &amp;"/" &amp; A8 &amp; """"</f>
-        <v>adb push "Android/role/cap.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cap.ab"</v>
+        <f t="shared" ref="C8:C33" si="0">"adb push """&amp;B8&amp;"/" &amp; A8 &amp; """ ""/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/" &amp; B8 &amp;"/" &amp; A8 &amp; """"</f>
+        <v>adb push "role/cap.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cap.ab"</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/christmas hat.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/christmas hat.ab"</v>
+        <v>adb push "role/christmas hat.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/christmas hat.ab"</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -636,7 +636,7 @@
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/christmas.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/christmas.ab"</v>
+        <v>adb push "role/christmas.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/christmas.ab"</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/cloud_snow.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cloud_snow.ab"</v>
+        <v>adb push "role/cloud_snow.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cloud_snow.ab"</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/coin hat.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/coin hat.ab"</v>
+        <v>adb push "role/coin hat.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/coin hat.ab"</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -672,7 +672,7 @@
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/cornu cervi.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cornu cervi.ab"</v>
+        <v>adb push "role/cornu cervi.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cornu cervi.ab"</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/elk.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/elk.ab"</v>
+        <v>adb push "role/elk.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/elk.ab"</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/fan wing.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/fan wing.ab"</v>
+        <v>adb push "role/fan wing.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/fan wing.ab"</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/ghost.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/ghost.ab"</v>
+        <v>adb push "role/ghost.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/ghost.ab"</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/giftbox.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/giftbox.ab"</v>
+        <v>adb push "role/giftbox.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/giftbox.ab"</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/little mouse.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/little mouse.ab"</v>
+        <v>adb push "role/little mouse.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/little mouse.ab"</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,7 +744,7 @@
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/mouse spring.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/mouse spring.ab"</v>
+        <v>adb push "role/mouse spring.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/mouse spring.ab"</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/pumpkin.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/pumpkin.ab"</v>
+        <v>adb push "role/pumpkin.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/pumpkin.ab"</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -768,7 +768,7 @@
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/snowman.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/snowman.ab"</v>
+        <v>adb push "role/snowman.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/snowman.ab"</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/wing.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/wing.ab"</v>
+        <v>adb push "role/wing.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/wing.ab"</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,7 +792,7 @@
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/role/wing_snow.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/wing_snow.ab"</v>
+        <v>adb push "role/wing_snow.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/wing_snow.ab"</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/center_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx01.ab"</v>
+        <v>adb push "particle/center_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx01.ab"</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/center_fx02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx02.ab"</v>
+        <v>adb push "particle/center_fx02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx02.ab"</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/guangdian_01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_01.ab"</v>
+        <v>adb push "particle/guangdian_01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_01.ab"</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/guangdian_02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_02.ab"</v>
+        <v>adb push "particle/guangdian_02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_02.ab"</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/hezi_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/hezi_fx.ab"</v>
+        <v>adb push "particle/hezi_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/hezi_fx.ab"</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/shandian_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/shandian_fx01.ab"</v>
+        <v>adb push "particle/shandian_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/shandian_fx01.ab"</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/star_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/star_fx.ab"</v>
+        <v>adb push "particle/star_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/star_fx.ab"</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,7 +888,7 @@
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/tuowei_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/tuowei_fx01.ab"</v>
+        <v>adb push "particle/tuowei_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/tuowei_fx01.ab"</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/wing01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/wing01.ab"</v>
+        <v>adb push "particle/wing01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/wing01.ab"</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "Android/particle/yun.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/yun.ab"</v>
+        <v>adb push "particle/yun.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/yun.ab"</v>
       </c>
     </row>
   </sheetData>

--- a/AssetBundles/adb push命令.xlsx
+++ b/AssetBundles/adb push命令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityHank_Art_Assets\AssetBundles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC34D88-2FEC-4E45-A9EC-78AD2B84464E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA2F69-FEDB-4D17-A4A4-488219752BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>antler.ab</t>
   </si>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>adb shell mkdir /storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle</t>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>papercut mice.ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,11 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" ref="C8:C33" si="0">"adb push """&amp;B8&amp;"/" &amp; A8 &amp; """ ""/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/" &amp; B8 &amp;"/" &amp; A8 &amp; """"</f>
+        <f t="shared" ref="C8:C34" si="0">"adb push """&amp;B8&amp;"/" &amp; A8 &amp; """ ""/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/" &amp; B8 &amp;"/" &amp; A8 &amp; """"</f>
         <v>adb push "role/cap.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cap.ab"</v>
       </c>
     </row>
@@ -797,120 +805,132 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/center_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx01.ab"</v>
+        <v>adb push "role/papercut mice.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/papercut mice.ab"</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/center_fx02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx02.ab"</v>
+        <v>adb push "particle/center_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx01.ab"</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/guangdian_01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_01.ab"</v>
+        <v>adb push "particle/center_fx02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx02.ab"</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/guangdian_02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_02.ab"</v>
+        <v>adb push "particle/guangdian_01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_01.ab"</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/hezi_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/hezi_fx.ab"</v>
+        <v>adb push "particle/guangdian_02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_02.ab"</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/shandian_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/shandian_fx01.ab"</v>
+        <v>adb push "particle/hezi_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/hezi_fx.ab"</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/star_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/star_fx.ab"</v>
+        <v>adb push "particle/shandian_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/shandian_fx01.ab"</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/tuowei_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/tuowei_fx01.ab"</v>
+        <v>adb push "particle/star_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/star_fx.ab"</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>adb push "particle/wing01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/wing01.ab"</v>
+        <v>adb push "particle/tuowei_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/tuowei_fx01.ab"</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "particle/wing01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/wing01.ab"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>adb push "particle/yun.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/yun.ab"</v>
       </c>

--- a/AssetBundles/adb push命令.xlsx
+++ b/AssetBundles/adb push命令.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityHank_Art_Assets\AssetBundles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA2F69-FEDB-4D17-A4A4-488219752BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="adb push" sheetId="1" r:id="rId1"/>
+    <sheet name="go2_pet_dress" sheetId="1" r:id="rId1"/>
+    <sheet name="appgame_cycling_map" sheetId="2" r:id="rId2"/>
+    <sheet name="appgame_cycling_view" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>antler.ab</t>
   </si>
@@ -154,13 +150,74 @@
   <si>
     <t>papercut mice.ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell rm -r /storage/self/primary/Android/data/com.bowhead.appgame/files/Model/cycling</t>
+  </si>
+  <si>
+    <t>adb shell mkdir /storage/self/primary/Android/data/com.bowhead.appgame/files/Model/cycling</t>
+  </si>
+  <si>
+    <t>nanjing.ab</t>
+  </si>
+  <si>
+    <t>cycling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell rm -r /storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell mkdir /storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell mkdir /storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar09.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_chicken_small.png</t>
+  </si>
+  <si>
+    <t>food_flagjuice_small.png</t>
+  </si>
+  <si>
+    <t>food_opensandwich_small.png</t>
+  </si>
+  <si>
+    <t>food_ricecakefish_small.png</t>
+  </si>
+  <si>
+    <t>food_salad_small.png</t>
+  </si>
+  <si>
+    <t>food_spider_cake_small.png</t>
+  </si>
+  <si>
+    <t>nanjing_bg.png</t>
+  </si>
+  <si>
+    <t>coord.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +258,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +301,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -240,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -251,10 +325,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -317,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -352,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -529,22 +609,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
@@ -552,7 +634,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -563,44 +645,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="3" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="3" customFormat="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:3">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="6" t="str">
         <f>"adb push """ &amp; A6 &amp; """ ""/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/" &amp; A6 &amp; """"</f>
         <v>adb push "Android" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/Android"</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -611,7 +692,7 @@
         <v>adb push "role/antler.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/antler.ab"</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -623,7 +704,7 @@
         <v>adb push "role/cap.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cap.ab"</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -635,7 +716,7 @@
         <v>adb push "role/christmas hat.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/christmas hat.ab"</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,7 +728,7 @@
         <v>adb push "role/christmas.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/christmas.ab"</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -659,7 +740,7 @@
         <v>adb push "role/cloud_snow.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cloud_snow.ab"</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,7 +752,7 @@
         <v>adb push "role/coin hat.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/coin hat.ab"</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -683,7 +764,7 @@
         <v>adb push "role/cornu cervi.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/cornu cervi.ab"</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +776,7 @@
         <v>adb push "role/elk.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/elk.ab"</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -707,7 +788,7 @@
         <v>adb push "role/fan wing.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/fan wing.ab"</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -719,7 +800,7 @@
         <v>adb push "role/ghost.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/ghost.ab"</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -731,7 +812,7 @@
         <v>adb push "role/giftbox.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/giftbox.ab"</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -743,7 +824,7 @@
         <v>adb push "role/little mouse.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/little mouse.ab"</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -755,7 +836,7 @@
         <v>adb push "role/mouse spring.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/mouse spring.ab"</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -767,7 +848,7 @@
         <v>adb push "role/pumpkin.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/pumpkin.ab"</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -779,7 +860,7 @@
         <v>adb push "role/snowman.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/snowman.ab"</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -791,7 +872,7 @@
         <v>adb push "role/wing.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/wing.ab"</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -803,7 +884,7 @@
         <v>adb push "role/wing_snow.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/wing_snow.ab"</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -815,7 +896,7 @@
         <v>adb push "role/papercut mice.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/role/papercut mice.ab"</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -827,7 +908,7 @@
         <v>adb push "particle/center_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx01.ab"</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -839,7 +920,7 @@
         <v>adb push "particle/center_fx02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/center_fx02.ab"</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -851,7 +932,7 @@
         <v>adb push "particle/guangdian_01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_01.ab"</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -863,7 +944,7 @@
         <v>adb push "particle/guangdian_02.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/guangdian_02.ab"</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -875,7 +956,7 @@
         <v>adb push "particle/hezi_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/hezi_fx.ab"</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -887,7 +968,7 @@
         <v>adb push "particle/shandian_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/shandian_fx01.ab"</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -899,7 +980,7 @@
         <v>adb push "particle/star_fx.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/star_fx.ab"</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -911,7 +992,7 @@
         <v>adb push "particle/tuowei_fx01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/tuowei_fx01.ab"</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -923,7 +1004,7 @@
         <v>adb push "particle/wing01.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/wing01.ab"</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -933,6 +1014,261 @@
       <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>adb push "particle/yun.ab" "/storage/sdcard0/Android/data/com.bowhead.hank/files/Model/particle/yun.ab"</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="118.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>"adb push """&amp;A4&amp; """ ""/storage/self/primary/Android/data/com.bowhead.appgame/files/Model/"&amp;B4&amp;"/"&amp;A4&amp;""""</f>
+        <v>adb push "Android" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Model//Android"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" ref="C5" si="0">"adb push """&amp;B5&amp;"/"&amp;A5&amp; """ ""/storage/self/primary/Android/data/com.bowhead.appgame/files/Model/"&amp;B5&amp;"/"&amp;A5&amp;""""</f>
+        <v>adb push "cycling/nanjing.ab" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Model/cycling/nanjing.ab"</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="118.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>"adb push """&amp;B6&amp;"/"&amp;A6&amp; """ ""/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/"&amp;B6&amp;"/"&amp;A6&amp;""""</f>
+        <v>adb push "View/avatar06.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/avatar06.png"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" ref="C7:C15" si="0">"adb push """&amp;B7&amp;"/"&amp;A7&amp; """ ""/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/"&amp;B7&amp;"/"&amp;A7&amp;""""</f>
+        <v>adb push "View/avatar09.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/avatar09.png"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/coord.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/coord.png"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/food_chicken_small.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/food_chicken_small.png"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/food_flagjuice_small.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/food_flagjuice_small.png"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/food_opensandwich_small.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/food_opensandwich_small.png"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/food_ricecakefish_small.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/food_ricecakefish_small.png"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/food_salad_small.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/food_salad_small.png"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/food_spider_cake_small.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/food_spider_cake_small.png"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>adb push "View/nanjing_bg.png" "/storage/self/primary/Android/data/com.bowhead.appgame/files/Texture/Cycling/View/nanjing_bg.png"</v>
       </c>
     </row>
   </sheetData>
